--- a/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -119,7 +119,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -132,7 +132,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -197,7 +197,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -210,7 +210,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -314,7 +314,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of atmospheric data</t>
+          <t>measurement of atmospheric data; can include multiple data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bacterial production in the water column measured by isotope uptake</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of bacterial respiration in the water column</t>
         </r>
       </text>
     </comment>
@@ -340,7 +366,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>amount of biomass; should include the name for the part of biomass measured</t>
+          <t>amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements</t>
         </r>
       </text>
     </comment>
@@ -353,7 +379,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
         </r>
       </text>
     </comment>
@@ -418,7 +444,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -448,6 +474,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>electrical conductivity of water</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AK13" authorId="0">
       <text>
         <r>
@@ -470,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of diether lipids</t>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
         </r>
       </text>
     </comment>
@@ -561,7 +600,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>dissolved organic nitrogen concentration</t>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
         </r>
       </text>
     </comment>
@@ -578,6 +617,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AU13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>visible waveband radiance and irradiance measurements in the water column</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AV13" authorId="0">
       <text>
         <r>
@@ -600,7 +652,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes</t>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
         </r>
       </text>
     </comment>
@@ -630,6 +682,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AZ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>raw or converted fluorescence of water</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BA13" authorId="0">
       <text>
         <r>
@@ -652,7 +717,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information regarding health state of the individual</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -665,7 +730,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -678,7 +743,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
         </r>
       </text>
     </comment>
@@ -691,7 +756,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -717,7 +782,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A locus tag prefix for an annotated genome</t>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
@@ -782,7 +847,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of n-alkanes</t>
+          <t>concentration of n-alkanes; can include multiple n-alkanes</t>
         </r>
       </text>
     </comment>
@@ -873,7 +938,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -938,7 +1003,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -977,7 +1042,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phaeopigments</t>
+          <t>concentration of phaeopigments; can include multiple phaeopigments</t>
         </r>
       </text>
     </comment>
@@ -1003,7 +1068,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phospholipid fatty acids</t>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
         </r>
       </text>
     </comment>
@@ -1237,7 +1302,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -1302,7 +1367,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>
@@ -1341,7 +1406,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total dissolved nitrogen concentration</t>
+          <t>total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = NH4 + NO3NO2 + dissolved organic nitrogen</t>
         </r>
       </text>
     </comment>
@@ -1407,6 +1472,19 @@
             <family val="2"/>
           </rPr>
           <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DI13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of magnitude and direction of flow within a fluid</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
@@ -374,6 +374,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -458,7 +461,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
@@ -106,150 +106,1385 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>microbial or eukaryotic strain name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of alkyl diethers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of aminopeptidase activity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of ammonium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of atmospheric data; can include multiple data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>bacterial production in the water column measured by isotope uptake</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of bacterial respiration in the water column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of bacterial carbon production</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of bishomohopanol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of bromide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of calcium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ratio of amount or concentrations of carbon to nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of chloride</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of chlorophyll</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>electrical conductivity of water</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>density of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved carbon dioxide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved hydrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dissolved inorganic carbon concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved inorganic nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved inorganic phosphorus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved oxygen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>visible waveband radiance and irradiance measurements in the water column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated size of genome</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>raw or converted fluorescence of water</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of glucosidase activity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Health or disease status of sample at time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of light intensity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>microbial or eukaryotic strain name</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of magnesium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of mean friction velocity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of mean peak friction velocity</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of n-alkanes; can include multiple n-alkanes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrogen (total)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic matter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of particulate organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of particulate organic nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>To what is the entity pathogenic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of petroleum hydrocarbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phaeopigments; can include multiple phaeopigments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phosphate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of photon flux</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of potassium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pressure to which the sample is subject, in atmospheres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of primary production</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of silicate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sodium concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of soluble reactive phosphorus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of sulfate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of sulfide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of suspended particulate matter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>stage of tide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of total depth of water column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = NH4 + NO3NO2 + dissolved organic nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total inorganic nitrogen content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total nitrogen content of the sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total particulate carbon content</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. Can also be measured without filtering, reported as phosphorus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="DI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of magnitude and direction of flow within a fluid</t>
         </r>
       </text>
     </comment>
@@ -258,7 +1493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, water; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -334,40 +1569,325 @@
     <t>bioproject_accession</t>
   </si>
   <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>collection_date</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>env_biome</t>
+  </si>
+  <si>
+    <t>env_feature</t>
+  </si>
+  <si>
+    <t>env_material</t>
+  </si>
+  <si>
+    <t>geo_loc_name</t>
+  </si>
+  <si>
+    <t>isol_growth_condt</t>
+  </si>
+  <si>
+    <t>lat_lon</t>
+  </si>
+  <si>
+    <t>num_replicons</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>alkalinity</t>
+  </si>
+  <si>
+    <t>alkyl_diethers</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>aminopept_act</t>
+  </si>
+  <si>
+    <t>ammonium</t>
+  </si>
+  <si>
+    <t>atmospheric_data</t>
+  </si>
+  <si>
+    <t>bac_prod</t>
+  </si>
+  <si>
+    <t>bac_resp</t>
+  </si>
+  <si>
+    <t>bacteria_carb_prod</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>bishomohopanol</t>
+  </si>
+  <si>
+    <t>bromide</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>carb_nitro_ratio</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>chloride</t>
+  </si>
+  <si>
+    <t>chlorophyll</t>
+  </si>
+  <si>
+    <t>conduc</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>diether_lipids</t>
+  </si>
+  <si>
+    <t>diss_carb_dioxide</t>
+  </si>
+  <si>
+    <t>diss_hydrogen</t>
+  </si>
+  <si>
+    <t>diss_inorg_carb</t>
+  </si>
+  <si>
+    <t>diss_inorg_nitro</t>
+  </si>
+  <si>
+    <t>diss_inorg_phosp</t>
+  </si>
+  <si>
+    <t>diss_org_carb</t>
+  </si>
+  <si>
+    <t>diss_org_nitro</t>
+  </si>
+  <si>
+    <t>diss_oxygen</t>
+  </si>
+  <si>
+    <t>down_par</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>encoded_traits</t>
+  </si>
+  <si>
+    <t>estimated_size</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>fluor</t>
+  </si>
+  <si>
+    <t>glucosidase_act</t>
+  </si>
+  <si>
+    <t>health_state</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>host_taxid</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>light_intensity</t>
+  </si>
+  <si>
     <t>locus_tag_prefix</t>
   </si>
   <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>collection_date</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>env_biome</t>
-  </si>
-  <si>
-    <t>env_feature</t>
-  </si>
-  <si>
-    <t>env_material</t>
-  </si>
-  <si>
-    <t>geo_loc_name</t>
-  </si>
-  <si>
-    <t>isol_growth_condt</t>
-  </si>
-  <si>
-    <t>lat_lon</t>
-  </si>
-  <si>
-    <t>num_replicons</t>
-  </si>
-  <si>
-    <t>ref_biomaterial</t>
+    <t>magnesium</t>
+  </si>
+  <si>
+    <t>mean_frict_vel</t>
+  </si>
+  <si>
+    <t>mean_peak_frict_vel</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>n_alkanes</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>nitrite</t>
+  </si>
+  <si>
+    <t>nitro</t>
+  </si>
+  <si>
+    <t>org_carb</t>
+  </si>
+  <si>
+    <t>org_matter</t>
+  </si>
+  <si>
+    <t>org_nitro</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>part_org_carb</t>
+  </si>
+  <si>
+    <t>part_org_nitro</t>
+  </si>
+  <si>
+    <t>pathogenicity</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>petroleum_hydrocarb</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>phaeopigments</t>
+  </si>
+  <si>
+    <t>phosphate</t>
+  </si>
+  <si>
+    <t>phosplipid_fatt_acid</t>
+  </si>
+  <si>
+    <t>photon_flux</t>
+  </si>
+  <si>
+    <t>potassium</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>primary_prod</t>
+  </si>
+  <si>
+    <t>redox_potential</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>silicate</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>soluble_react_phosp</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>sulfate</t>
+  </si>
+  <si>
+    <t>sulfide</t>
+  </si>
+  <si>
+    <t>suspend_part_matter</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>tidal_stage</t>
+  </si>
+  <si>
+    <t>tot_depth_water_col</t>
+  </si>
+  <si>
+    <t>tot_diss_nitro</t>
+  </si>
+  <si>
+    <t>tot_inorg_nitro</t>
+  </si>
+  <si>
+    <t>tot_nitro</t>
+  </si>
+  <si>
+    <t>tot_part_carb</t>
+  </si>
+  <si>
+    <t>tot_phosp</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
+  </si>
+  <si>
+    <t>water_current</t>
   </si>
 </sst>
 </file>
@@ -785,77 +2305,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:113">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:113">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:113" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1">
+    <row r="4" spans="1:113" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1">
+    <row r="5" spans="1:113" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:113">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:113">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:113">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:113">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:113">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:113">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:113">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:113">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:113">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:113">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -874,7 +2394,7 @@
       <c r="F15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -907,8 +2427,293 @@
       <c r="Q15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="8" t="s">
         <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ15" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="CK15" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CM15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="CO15" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="CT15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="CW15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="CX15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="CY15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="CZ15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="DA15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="DB15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="DC15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="DD15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="DE15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="DF15" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="DG15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="DH15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI15" s="8" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
@@ -496,11 +496,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>density of sample</t>
         </r>
       </text>
     </comment>
-    <comment ref="AL15" authorId="0">
+    <comment ref="AM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM15" authorId="0">
+    <comment ref="AN15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN15" authorId="0">
+    <comment ref="AO15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO15" authorId="0">
+    <comment ref="AP15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP15" authorId="0">
+    <comment ref="AQ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ15" authorId="0">
+    <comment ref="AR15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR15" authorId="0">
+    <comment ref="AS15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS15" authorId="0">
+    <comment ref="AT15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT15" authorId="0">
+    <comment ref="AU15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU15" authorId="0">
+    <comment ref="AV15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV15" authorId="0">
+    <comment ref="AW15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW15" authorId="0">
+    <comment ref="AX15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX15" authorId="0">
+    <comment ref="AY15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY15" authorId="0">
+    <comment ref="AZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -682,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ15" authorId="0">
+    <comment ref="BA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA15" authorId="0">
+    <comment ref="BB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -708,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB15" authorId="0">
+    <comment ref="BC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC15" authorId="0">
+    <comment ref="BD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD15" authorId="0">
+    <comment ref="BE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE15" authorId="0">
+    <comment ref="BF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF15" authorId="0">
+    <comment ref="BG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG15" authorId="0">
+    <comment ref="BH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -786,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH15" authorId="0">
+    <comment ref="BI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI15" authorId="0">
+    <comment ref="BJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ15" authorId="0">
+    <comment ref="BK15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +838,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK15" authorId="0">
+    <comment ref="BL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -838,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL15" authorId="0">
+    <comment ref="BM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM15" authorId="0">
+    <comment ref="BN15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN15" authorId="0">
+    <comment ref="BO15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO15" authorId="0">
+    <comment ref="BP15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP15" authorId="0">
+    <comment ref="BQ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -903,7 +916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ15" authorId="0">
+    <comment ref="BR15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -916,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR15" authorId="0">
+    <comment ref="BS15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS15" authorId="0">
+    <comment ref="BT15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT15" authorId="0">
+    <comment ref="BU15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU15" authorId="0">
+    <comment ref="BV15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -968,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV15" authorId="0">
+    <comment ref="BW15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -981,7 +994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW15" authorId="0">
+    <comment ref="BX15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -994,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX15" authorId="0">
+    <comment ref="BY15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,7 +1020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY15" authorId="0">
+    <comment ref="BZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ15" authorId="0">
+    <comment ref="CA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1046,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA15" authorId="0">
+    <comment ref="CB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1046,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB15" authorId="0">
+    <comment ref="CC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC15" authorId="0">
+    <comment ref="CD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1072,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD15" authorId="0">
+    <comment ref="CE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE15" authorId="0">
+    <comment ref="CF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1098,7 +1111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF15" authorId="0">
+    <comment ref="CG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1111,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG15" authorId="0">
+    <comment ref="CH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH15" authorId="0">
+    <comment ref="CI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1137,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI15" authorId="0">
+    <comment ref="CJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ15" authorId="0">
+    <comment ref="CK15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1163,7 +1176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK15" authorId="0">
+    <comment ref="CL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1176,7 +1189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL15" authorId="0">
+    <comment ref="CM15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM15" authorId="0">
+    <comment ref="CN15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1202,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN15" authorId="0">
+    <comment ref="CO15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1215,7 +1228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO15" authorId="0">
+    <comment ref="CP15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CP15" authorId="0">
+    <comment ref="CQ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ15" authorId="0">
+    <comment ref="CR15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1254,7 +1267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR15" authorId="0">
+    <comment ref="CS15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1267,7 +1280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS15" authorId="0">
+    <comment ref="CT15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1280,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CT15" authorId="0">
+    <comment ref="CU15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU15" authorId="0">
+    <comment ref="CV15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV15" authorId="0">
+    <comment ref="CW15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1319,7 +1332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW15" authorId="0">
+    <comment ref="CX15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CX15" authorId="0">
+    <comment ref="CY15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CY15" authorId="0">
+    <comment ref="CZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1358,7 +1371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CZ15" authorId="0">
+    <comment ref="DA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1371,7 +1384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DA15" authorId="0">
+    <comment ref="DB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1384,7 +1397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DB15" authorId="0">
+    <comment ref="DC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1397,7 +1410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DC15" authorId="0">
+    <comment ref="DD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1410,7 +1423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DD15" authorId="0">
+    <comment ref="DE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1423,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DE15" authorId="0">
+    <comment ref="DF15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1436,7 +1449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DF15" authorId="0">
+    <comment ref="DG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1449,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DG15" authorId="0">
+    <comment ref="DH15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1462,7 +1475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DH15" authorId="0">
+    <comment ref="DI15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1475,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="DI15" authorId="0">
+    <comment ref="DJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1493,7 +1506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, water; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -1657,6 +1670,9 @@
   </si>
   <si>
     <t>conduc</t>
+  </si>
+  <si>
+    <t>culture_collection</t>
   </si>
   <si>
     <t>density</t>
@@ -2305,77 +2321,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113">
+    <row r="1" spans="1:114">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:113">
+    <row r="2" spans="1:114">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:113" s="3" customFormat="1">
+    <row r="3" spans="1:114" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:113" s="4" customFormat="1">
+    <row r="4" spans="1:114" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:113" s="5" customFormat="1">
+    <row r="5" spans="1:114" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:113">
+    <row r="6" spans="1:114">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:113">
+    <row r="7" spans="1:114">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:113">
+    <row r="8" spans="1:114">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:113">
+    <row r="9" spans="1:114">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:113">
+    <row r="10" spans="1:114">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:113">
+    <row r="11" spans="1:114">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:113">
+    <row r="12" spans="1:114">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:113">
+    <row r="13" spans="1:114">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:113">
+    <row r="14" spans="1:114">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:113">
+    <row r="15" spans="1:114">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2714,6 +2730,9 @@
       </c>
       <c r="DI15" s="8" t="s">
         <v>126</v>
+      </c>
+      <c r="DJ15" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.ba.water.4.0.xlsx
@@ -496,7 +496,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of source institute and unique culture identifier. See the description for the proper format and list of allowed institutes, http://www.insdc.org/controlled-vocabulary-culturecollection-qualifier</t>
+          <t>density of sample</t>
         </r>
       </text>
     </comment>
@@ -509,7 +509,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>density of sample</t>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
         </r>
       </text>
     </comment>
@@ -522,7 +522,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
+          <t>concentration of dissolved carbon dioxide</t>
         </r>
       </text>
     </comment>
@@ -535,7 +535,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of dissolved carbon dioxide</t>
+          <t>concentration of dissolved hydrogen</t>
         </r>
       </text>
     </comment>
@@ -548,7 +548,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of dissolved hydrogen</t>
+          <t>dissolved inorganic carbon concentration</t>
         </r>
       </text>
     </comment>
@@ -561,7 +561,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>dissolved inorganic carbon concentration</t>
+          <t>concentration of dissolved inorganic nitrogen</t>
         </r>
       </text>
     </comment>
@@ -574,7 +574,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of dissolved inorganic nitrogen</t>
+          <t>concentration of dissolved inorganic phosphorus</t>
         </r>
       </text>
     </comment>
@@ -587,7 +587,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of dissolved inorganic phosphorus</t>
+          <t>concentration of dissolved organic carbon</t>
         </r>
       </text>
     </comment>
@@ -600,7 +600,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of dissolved organic carbon</t>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
         </r>
       </text>
     </comment>
@@ -613,7 +613,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
+          <t>concentration of dissolved oxygen</t>
         </r>
       </text>
     </comment>
@@ -626,7 +626,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of dissolved oxygen</t>
+          <t>visible waveband radiance and irradiance measurements in the water column</t>
         </r>
       </text>
     </comment>
@@ -639,7 +639,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>visible waveband radiance and irradiance measurements in the water column</t>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
         </r>
       </text>
     </comment>
@@ -652,7 +652,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
         </r>
       </text>
     </comment>
@@ -665,7 +665,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
+          <t>Estimated size of genome</t>
         </r>
       </text>
     </comment>
@@ -678,7 +678,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Estimated size of genome</t>
+          <t>Plasmids that have significance phenotypic consequence</t>
         </r>
       </text>
     </comment>
@@ -691,7 +691,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Plasmids that have significance phenotypic consequence</t>
+          <t>raw or converted fluorescence of water</t>
         </r>
       </text>
     </comment>
@@ -704,7 +704,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>raw or converted fluorescence of water</t>
+          <t>measurement of glucosidase activity</t>
         </r>
       </text>
     </comment>
@@ -717,7 +717,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of glucosidase activity</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -730,7 +730,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Health or disease status of sample at time of collection</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -743,7 +743,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
         </r>
       </text>
     </comment>
@@ -756,7 +756,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -769,7 +769,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+          <t>measurement of light intensity</t>
         </r>
       </text>
     </comment>
@@ -782,7 +782,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of light intensity</t>
+          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
         </r>
       </text>
     </comment>
@@ -795,7 +795,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>A locus tag prefix required for an annotated genome, http://www.ddbj.nig.ac.jp/sub/locus_tag-e.html</t>
+          <t>concentration of magnesium</t>
         </r>
       </text>
     </comment>
@@ -808,7 +808,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of magnesium</t>
+          <t>measurement of mean friction velocity</t>
         </r>
       </text>
     </comment>
@@ -821,7 +821,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of mean friction velocity</t>
+          <t>measurement of mean peak friction velocity</t>
         </r>
       </text>
     </comment>
@@ -834,7 +834,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of mean peak friction velocity</t>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
         </r>
       </text>
     </comment>
@@ -847,7 +847,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>any other measurement performed or parameter collected, that is not listed here</t>
+          <t>concentration of n-alkanes; can include multiple n-alkanes</t>
         </r>
       </text>
     </comment>
@@ -860,7 +860,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of n-alkanes; can include multiple n-alkanes</t>
+          <t>concentration of nitrate</t>
         </r>
       </text>
     </comment>
@@ -873,7 +873,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of nitrate</t>
+          <t>concentration of nitrite</t>
         </r>
       </text>
     </comment>
@@ -886,7 +886,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of nitrite</t>
+          <t>concentration of nitrogen (total)</t>
         </r>
       </text>
     </comment>
@@ -899,7 +899,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of nitrogen (total)</t>
+          <t>concentration of organic carbon</t>
         </r>
       </text>
     </comment>
@@ -912,7 +912,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of organic carbon</t>
+          <t>concentration of organic matter</t>
         </r>
       </text>
     </comment>
@@ -925,7 +925,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of organic matter</t>
+          <t>concentration of organic nitrogen</t>
         </r>
       </text>
     </comment>
@@ -938,7 +938,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of organic nitrogen</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -951,7 +951,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+          <t>oxygenation status of sample</t>
         </r>
       </text>
     </comment>
@@ -964,7 +964,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>oxygenation status of sample</t>
+          <t>concentration of particulate organic carbon</t>
         </r>
       </text>
     </comment>
@@ -977,7 +977,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of particulate organic carbon</t>
+          <t>concentration of particulate organic nitrogen</t>
         </r>
       </text>
     </comment>
@@ -990,7 +990,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of particulate organic nitrogen</t>
+          <t>To what is the entity pathogenic</t>
         </r>
       </text>
     </comment>
@@ -1003,7 +1003,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>To what is the entity pathogenic</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -1016,7 +1016,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+          <t>concentration of petroleum hydrocarbon</t>
         </r>
       </text>
     </comment>
@@ -1029,7 +1029,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of petroleum hydrocarbon</t>
+          <t>pH measurement</t>
         </r>
       </text>
     </comment>
@@ -1042,7 +1042,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pH measurement</t>
+          <t>concentration of phaeopigments; can include multiple phaeopigments</t>
         </r>
       </text>
     </comment>
@@ -1055,7 +1055,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phaeopigments; can include multiple phaeopigments</t>
+          <t>concentration of phosphate</t>
         </r>
       </text>
     </comment>
@@ -1068,7 +1068,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phosphate</t>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
         </r>
       </text>
     </comment>
@@ -1081,7 +1081,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phospholipid fatty acids; can include multiple values</t>
+          <t>measurement of photon flux</t>
         </r>
       </text>
     </comment>
@@ -1094,7 +1094,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of photon flux</t>
+          <t>concentration of potassium</t>
         </r>
       </text>
     </comment>
@@ -1107,7 +1107,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of potassium</t>
+          <t>pressure to which the sample is subject, in atmospheres</t>
         </r>
       </text>
     </comment>
@@ -1120,7 +1120,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>pressure to which the sample is subject, in atmospheres</t>
+          <t>measurement of primary production</t>
         </r>
       </text>
     </comment>
@@ -1133,7 +1133,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of primary production</t>
+          <t>redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential</t>
         </r>
       </text>
     </comment>
@@ -1146,7 +1146,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential</t>
+          <t>Aerobic or anaerobic</t>
         </r>
       </text>
     </comment>
@@ -1159,7 +1159,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Aerobic or anaerobic</t>
+          <t>salinity measurement</t>
         </r>
       </text>
     </comment>
@@ -1172,7 +1172,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>salinity measurement</t>
+          <t>Method or device employed for collecting sample</t>
         </r>
       </text>
     </comment>
@@ -1185,7 +1185,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Method or device employed for collecting sample</t>
+          <t>Processing applied to the sample during or after isolation</t>
         </r>
       </text>
     </comment>
@@ -1198,7 +1198,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Processing applied to the sample during or after isolation</t>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
         </r>
       </text>
     </comment>
@@ -1211,7 +1211,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+          <t>duration for which sample was stored</t>
         </r>
       </text>
     </comment>
@@ -1224,7 +1224,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>duration for which sample was stored</t>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
         </r>
       </text>
     </comment>
@@ -1237,7 +1237,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+          <t>temperature at which sample was stored, e.g. -80</t>
         </r>
       </text>
     </comment>
@@ -1250,7 +1250,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature at which sample was stored, e.g. -80</t>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
         </r>
       </text>
     </comment>
@@ -1263,7 +1263,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+          <t>concentration of silicate</t>
         </r>
       </text>
     </comment>
@@ -1276,7 +1276,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of silicate</t>
+          <t>sodium concentration</t>
         </r>
       </text>
     </comment>
@@ -1289,7 +1289,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>sodium concentration</t>
+          <t>concentration of soluble reactive phosphorus</t>
         </r>
       </text>
     </comment>
@@ -1302,7 +1302,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of soluble reactive phosphorus</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -1315,7 +1315,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
         </r>
       </text>
     </comment>
@@ -1328,7 +1328,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+          <t>concentration of sulfate</t>
         </r>
       </text>
     </comment>
@@ -1341,7 +1341,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of sulfate</t>
+          <t>concentration of sulfide</t>
         </r>
       </text>
     </comment>
@@ -1354,7 +1354,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of sulfide</t>
+          <t>concentration of suspended particulate matter</t>
         </r>
       </text>
     </comment>
@@ -1367,7 +1367,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of suspended particulate matter</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>
@@ -1380,7 +1380,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample at time of sampling</t>
+          <t>stage of tide</t>
         </r>
       </text>
     </comment>
@@ -1393,7 +1393,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>stage of tide</t>
+          <t>measurement of total depth of water column</t>
         </r>
       </text>
     </comment>
@@ -1406,7 +1406,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>measurement of total depth of water column</t>
+          <t>total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = NH4 + NO3NO2 + dissolved organic nitrogen</t>
         </r>
       </text>
     </comment>
@@ -1419,7 +1419,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total dissolved nitrogen concentration, reported as nitrogen, measured by: total dissolved nitrogen = NH4 + NO3NO2 + dissolved organic nitrogen</t>
+          <t>total inorganic nitrogen content</t>
         </r>
       </text>
     </comment>
@@ -1432,7 +1432,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total inorganic nitrogen content</t>
+          <t>total nitrogen content of the sample</t>
         </r>
       </text>
     </comment>
@@ -1445,7 +1445,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total nitrogen content of the sample</t>
+          <t>total particulate carbon content</t>
         </r>
       </text>
     </comment>
@@ -1458,7 +1458,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total particulate carbon content</t>
+          <t>total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. Can also be measured without filtering, reported as phosphorus</t>
         </r>
       </text>
     </comment>
@@ -1471,24 +1471,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total phosphorus concentration, calculated by: total phosphorus = total dissolved phosphorus + particulate phosphorus. Can also be measured without filtering, reported as phosphorus</t>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
         </r>
       </text>
     </comment>
     <comment ref="DI15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Feeding position in food chain (eg., chemolithotroph)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="DJ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1506,7 +1493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: cultured bacteria/archaea, water; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -1670,9 +1657,6 @@
   </si>
   <si>
     <t>conduc</t>
-  </si>
-  <si>
-    <t>culture_collection</t>
   </si>
   <si>
     <t>density</t>
@@ -2321,77 +2305,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114">
+    <row r="1" spans="1:113">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:114">
+    <row r="2" spans="1:113">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:114" s="3" customFormat="1">
+    <row r="3" spans="1:113" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:114" s="4" customFormat="1">
+    <row r="4" spans="1:113" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:114" s="5" customFormat="1">
+    <row r="5" spans="1:113" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:114">
+    <row r="6" spans="1:113">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:114">
+    <row r="7" spans="1:113">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:114">
+    <row r="8" spans="1:113">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:114">
+    <row r="9" spans="1:113">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:114">
+    <row r="10" spans="1:113">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:114">
+    <row r="11" spans="1:113">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:114">
+    <row r="12" spans="1:113">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:114">
+    <row r="13" spans="1:113">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:114">
+    <row r="14" spans="1:113">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:114">
+    <row r="15" spans="1:113">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2730,9 +2714,6 @@
       </c>
       <c r="DI15" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="DJ15" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
